--- a/IT Returns/Girish Salunkhe/Computation.xlsx
+++ b/IT Returns/Girish Salunkhe/Computation.xlsx
@@ -1,38 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data0\IT Returns\Girish Salunkhe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE2A0026-8767-4EC7-BF76-91EEC551CDF0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="18855" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="18855" windowHeight="8160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp AY 2016-17" sheetId="1" r:id="rId1"/>
     <sheet name="Comp AY 2017-18" sheetId="2" r:id="rId2"/>
+    <sheet name="Comp AY 2018-19" sheetId="3" r:id="rId3"/>
+    <sheet name="Salary AY 18-19" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="a" localSheetId="1">#REF!</definedName>
+    <definedName name="a" localSheetId="2">#REF!</definedName>
     <definedName name="a">#REF!</definedName>
-    <definedName name="cmb_TDS2.StateCode">[2]IT_DDTP!$H$65:$H$100</definedName>
+    <definedName name="cmb_TDS2.StateCode">[1]IT_DDTP!$H$65:$H$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Comp AY 2016-17'!$A$1:$F$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Comp AY 2017-18'!$A$1:$F$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Comp AY 2018-19'!$A$1:$G$58</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI" localSheetId="0">#REF!</definedName>
     <definedName name="PRINT_AREA_MI" localSheetId="1">#REF!</definedName>
+    <definedName name="PRINT_AREA_MI" localSheetId="2">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Comp AY 2018-19'!$12:$14</definedName>
     <definedName name="sd" localSheetId="1">#REF!</definedName>
+    <definedName name="sd" localSheetId="2">#REF!</definedName>
     <definedName name="sd">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>INCOME TAX RETURN</t>
   </si>
@@ -190,19 +203,172 @@
   <si>
     <t>Interest on savings account</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Leave Encas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic              </t>
+  </si>
+  <si>
+    <t>MEDICAL</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>V.D.A.</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRE_ALLOW  </t>
+  </si>
+  <si>
+    <t>K.A.BM/C.INCH.</t>
+  </si>
+  <si>
+    <t>Allowance</t>
+  </si>
+  <si>
+    <t>Exempt</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>Grosss Salary</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>CR.SOCIETY</t>
+  </si>
+  <si>
+    <t>L I C</t>
+  </si>
+  <si>
+    <t>GANPATI ADVANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEHICLE       </t>
+  </si>
+  <si>
+    <t>REV_STAMP</t>
+  </si>
+  <si>
+    <t>PRO_TAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCOME TAX </t>
+  </si>
+  <si>
+    <t>ARRE_DED PF</t>
+  </si>
+  <si>
+    <t>RETIR.FUND</t>
+  </si>
+  <si>
+    <t>HOSPITALISATION</t>
+  </si>
+  <si>
+    <t>Total Deductions</t>
+  </si>
+  <si>
+    <t>Net Salary</t>
+  </si>
+  <si>
+    <t>Salary (Excluding allowances)</t>
+  </si>
+  <si>
+    <t>Allowances</t>
+  </si>
+  <si>
+    <t>Less : Exempt u/s 10</t>
+  </si>
+  <si>
+    <t>Perquisites</t>
+  </si>
+  <si>
+    <t>Less : Deduction u/s 16(iii)</t>
+  </si>
+  <si>
+    <t>Deductions</t>
+  </si>
+  <si>
+    <t>Income chargeable under the head salaries</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Section 80C</t>
+    </r>
+  </si>
+  <si>
+    <t>Insurance Premium</t>
+  </si>
+  <si>
+    <t>Provident Fund</t>
+  </si>
+  <si>
+    <t>Housing Principal</t>
+  </si>
+  <si>
+    <t>Savings Interest</t>
+  </si>
+  <si>
+    <t>(Max. 150,000)</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,16 +427,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -388,19 +565,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -413,9 +675,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -425,75 +684,30 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -516,40 +730,163 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3"/>
-    <cellStyle name="Excel Built-in Normal 1" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{923D0AD0-CC4C-4340-B70D-A3F4D3BF85D1}"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Comp AY 2015-16"/>
-      <sheetName val="FS AY 2015-16"/>
-      <sheetName val="Comp AY 2016-17"/>
-      <sheetName val="FS AY 2016-17"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Home"/>
@@ -804,6 +1141,25 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="O12">
+            <v>921488</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -847,7 +1203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,9 +1235,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -913,6 +1287,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1088,7 +1480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1097,440 +1489,451 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="6" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>24894</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>42582</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18.75">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22">
         <v>1308762</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="31"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="39">
-        <v>0</v>
-      </c>
-      <c r="F18" s="39"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="40">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="23">
         <v>-11825</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="23">
         <f>E18+E19</f>
         <v>-11825</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="25"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="39">
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="22">
         <f>F15+F19</f>
         <v>1296937</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="40">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="23">
         <v>150000</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="23">
         <f>ROUND(E21-E23,-1)</f>
         <v>1146940</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22">
         <f>F23</f>
         <v>1146940</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="42">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="25">
         <f>((F25-1000000)*0.3)+125000</f>
         <v>169082</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="40">
-        <v>0</v>
-      </c>
-      <c r="F29" s="40">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="23">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
         <f>E27+E29</f>
         <v>169082</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="39">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="22">
         <f>F29*2/100</f>
         <v>3381.64</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="43">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="26">
         <f>F29*1/100</f>
         <v>1690.82</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="23">
         <f>F29+E32+E33</f>
         <v>174154.46000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="39">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="22">
         <f>F33</f>
         <v>174154.46000000002</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="40">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="23">
         <v>174153</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A22:D22"/>
@@ -1540,17 +1943,6 @@
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0" top="0.47" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1558,574 +1950,584 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>24894</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>42952</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18.75">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22">
         <v>1294766</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="31"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="39">
-        <v>0</v>
-      </c>
-      <c r="F18" s="39"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="40">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="23">
         <v>-129807</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="23">
         <f>E18+E19</f>
         <v>-129807</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22">
         <v>11321</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="25"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="38">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="21">
         <v>7500000</v>
       </c>
-      <c r="F25" s="39"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="30.75" customHeight="1">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="40">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="23">
         <v>2844258</v>
       </c>
-      <c r="F26" s="39"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="31"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="38">
+      <c r="A27" s="18"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="21">
         <f>E25-E26</f>
         <v>4655742</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="41">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="24">
         <v>4655742</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="23">
         <f>E27-E28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21">
         <f>F15+F19+F22+F28</f>
         <v>1176280</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="38">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="21">
         <v>150000</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="41">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="24">
         <v>10000</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="23">
         <f>F30-E32-E33</f>
         <v>1016280</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22">
         <f>F33</f>
         <v>1016280</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="42">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="25">
         <f>((F35-1000000)*0.3)+125000</f>
         <v>129884</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="40">
-        <v>0</v>
-      </c>
-      <c r="F39" s="40">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="23">
+        <v>0</v>
+      </c>
+      <c r="F39" s="23">
         <f>E37+E39</f>
         <v>129884</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="39">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="22">
         <f>F39*2/100</f>
         <v>2597.6799999999998</v>
       </c>
-      <c r="F42" s="39"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="43">
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="26">
         <f>F39*1/100</f>
         <v>1298.8399999999999</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="23">
         <f>F39+E42+E43</f>
         <v>133780.51999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="22"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="39">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="22">
         <f>F43</f>
         <v>133780.51999999999</v>
       </c>
-      <c r="F45" s="44"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="39">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="22">
         <v>133373</v>
       </c>
-      <c r="F46" s="44"/>
+      <c r="F46" s="27"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="40">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="23">
         <v>75000</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F47" s="23">
         <f>E45-E46-E47</f>
         <v>-74592.48000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="22"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23">
         <f>ROUND(F47,-1)</f>
         <v>-74590</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A49:D49"/>
@@ -2142,18 +2544,1999 @@
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0" top="0.27" bottom="0.2" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488DC7D8-DD31-48AB-8F42-2BEA2EB6A50D}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>24894</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>43312</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75">
+      <c r="A12" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="22">
+        <f>'Salary AY 18-19'!Q3</f>
+        <v>356080</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="22">
+        <v>14027</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="65"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23">
+        <f>[2]Sheet1!$O$12</f>
+        <v>921488</v>
+      </c>
+      <c r="F19" s="22">
+        <f>SUM(E17:E19)</f>
+        <v>1291595</v>
+      </c>
+      <c r="G19" s="65"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="65"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22">
+        <v>17400</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23">
+        <v>2500</v>
+      </c>
+      <c r="F23" s="22">
+        <f>-SUM(E22:E23)</f>
+        <v>-19900</v>
+      </c>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="65"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22">
+        <f>F19+F23</f>
+        <v>1271695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="18"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="23">
+        <v>-158117</v>
+      </c>
+      <c r="G29" s="22">
+        <f>F28+F29</f>
+        <v>-158117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A34" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="89">
+        <f>G25+G29+G32</f>
+        <v>1122548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A35" s="72"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="76">
+        <v>28800</v>
+      </c>
+      <c r="E37" s="76"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="71"/>
+      <c r="B38" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="76">
+        <v>105542</v>
+      </c>
+      <c r="E38" s="76"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="71"/>
+      <c r="B39" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="88">
+        <v>103177</v>
+      </c>
+      <c r="E39" s="76">
+        <f>SUM(D37:D39)</f>
+        <v>237519</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="71"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="21">
+        <v>150000</v>
+      </c>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="24">
+        <v>8970</v>
+      </c>
+      <c r="G41" s="22">
+        <f>G34-F40-F41</f>
+        <v>963578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="71"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A43" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="89">
+        <f>ROUND(G41,-1)</f>
+        <v>963580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A44" s="90"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="25">
+        <f>((G43-500000)*0.2)+12500</f>
+        <v>105216</v>
+      </c>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="23">
+        <v>0</v>
+      </c>
+      <c r="G47" s="23">
+        <f>F45+F47</f>
+        <v>105216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="71"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="22">
+        <f>G47*2/100</f>
+        <v>2104.3200000000002</v>
+      </c>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="26">
+        <f>G47*1/100</f>
+        <v>1052.1600000000001</v>
+      </c>
+      <c r="G51" s="23">
+        <f>G47+F50+F51</f>
+        <v>108372.48000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="13"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22">
+        <v>108372.48000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A56" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="89">
+        <f>ROUND((G51-G54),-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A57" s="92"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A12:G12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0" top="0.27" bottom="0.2" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="44" max="6" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BAE657-1C0E-4405-B2FB-B1E0D9220BCE}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="47" customWidth="1"/>
+    <col min="3" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="45">
+        <v>42826</v>
+      </c>
+      <c r="C1" s="45">
+        <v>42856</v>
+      </c>
+      <c r="D1" s="45">
+        <v>42887</v>
+      </c>
+      <c r="E1" s="45">
+        <v>42917</v>
+      </c>
+      <c r="F1" s="45">
+        <v>42948</v>
+      </c>
+      <c r="G1" s="45">
+        <v>42979</v>
+      </c>
+      <c r="H1" s="45">
+        <v>43009</v>
+      </c>
+      <c r="I1" s="45">
+        <v>43040</v>
+      </c>
+      <c r="J1" s="45">
+        <v>43070</v>
+      </c>
+      <c r="K1" s="45">
+        <v>43101</v>
+      </c>
+      <c r="L1" s="45">
+        <v>43132</v>
+      </c>
+      <c r="M1" s="45">
+        <v>43160</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="6.75" customHeight="1"/>
+    <row r="3" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A3" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="49">
+        <v>8500</v>
+      </c>
+      <c r="C3" s="50">
+        <v>8500</v>
+      </c>
+      <c r="D3" s="50">
+        <v>8500</v>
+      </c>
+      <c r="E3" s="50">
+        <v>8500</v>
+      </c>
+      <c r="F3" s="50">
+        <v>8500</v>
+      </c>
+      <c r="G3" s="50">
+        <v>8500</v>
+      </c>
+      <c r="H3" s="50">
+        <v>8900</v>
+      </c>
+      <c r="I3" s="50">
+        <v>8900</v>
+      </c>
+      <c r="J3" s="50">
+        <v>8900</v>
+      </c>
+      <c r="K3" s="51">
+        <v>8900</v>
+      </c>
+      <c r="L3" s="51">
+        <v>8900</v>
+      </c>
+      <c r="M3" s="51">
+        <v>8900</v>
+      </c>
+      <c r="N3" s="52">
+        <f>SUM(B3:M3)</f>
+        <v>104400</v>
+      </c>
+      <c r="O3">
+        <v>106295</v>
+      </c>
+      <c r="P3">
+        <v>145385</v>
+      </c>
+      <c r="Q3" s="53">
+        <f>SUM(N3:P3)</f>
+        <v>356080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.25" customHeight="1">
+      <c r="A4" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="49">
+        <v>0</v>
+      </c>
+      <c r="C4" s="49">
+        <v>0</v>
+      </c>
+      <c r="D4" s="49">
+        <v>0</v>
+      </c>
+      <c r="E4" s="49">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49">
+        <v>0</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0</v>
+      </c>
+      <c r="H4" s="49">
+        <v>0</v>
+      </c>
+      <c r="I4" s="49">
+        <v>0</v>
+      </c>
+      <c r="J4" s="49">
+        <v>0</v>
+      </c>
+      <c r="K4" s="49">
+        <v>0</v>
+      </c>
+      <c r="L4" s="49">
+        <v>0</v>
+      </c>
+      <c r="M4" s="50">
+        <v>22000</v>
+      </c>
+      <c r="N4" s="52">
+        <f t="shared" ref="N4:N12" si="0">SUM(B4:M4)</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="49">
+        <v>49851</v>
+      </c>
+      <c r="C5" s="50">
+        <v>49434</v>
+      </c>
+      <c r="D5" s="50">
+        <v>49434</v>
+      </c>
+      <c r="E5" s="50">
+        <v>49434</v>
+      </c>
+      <c r="F5" s="50">
+        <v>50172</v>
+      </c>
+      <c r="G5" s="50">
+        <v>50172</v>
+      </c>
+      <c r="H5" s="50">
+        <v>50172</v>
+      </c>
+      <c r="I5" s="50">
+        <v>51392</v>
+      </c>
+      <c r="J5" s="50">
+        <v>51392</v>
+      </c>
+      <c r="K5" s="51">
+        <v>51392</v>
+      </c>
+      <c r="L5" s="50">
+        <v>51745</v>
+      </c>
+      <c r="M5" s="50">
+        <v>51745</v>
+      </c>
+      <c r="N5" s="52">
+        <f t="shared" si="0"/>
+        <v>606335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="49">
+        <v>13182</v>
+      </c>
+      <c r="C6" s="50">
+        <v>13072</v>
+      </c>
+      <c r="D6" s="50">
+        <v>13072</v>
+      </c>
+      <c r="E6" s="50">
+        <v>13072</v>
+      </c>
+      <c r="F6" s="50">
+        <v>13267</v>
+      </c>
+      <c r="G6" s="50">
+        <v>13267</v>
+      </c>
+      <c r="H6" s="50">
+        <v>13767</v>
+      </c>
+      <c r="I6" s="50">
+        <v>14102</v>
+      </c>
+      <c r="J6" s="50">
+        <v>14102</v>
+      </c>
+      <c r="K6" s="51">
+        <v>14102</v>
+      </c>
+      <c r="L6" s="50">
+        <v>14199</v>
+      </c>
+      <c r="M6" s="50">
+        <v>14199</v>
+      </c>
+      <c r="N6" s="52">
+        <f t="shared" si="0"/>
+        <v>163403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="49">
+        <v>3577</v>
+      </c>
+      <c r="C7" s="50">
+        <v>3550</v>
+      </c>
+      <c r="D7" s="50">
+        <v>3550</v>
+      </c>
+      <c r="E7" s="50">
+        <v>3550</v>
+      </c>
+      <c r="F7" s="50">
+        <v>3597</v>
+      </c>
+      <c r="G7" s="50">
+        <v>3597</v>
+      </c>
+      <c r="H7" s="50">
+        <v>3642</v>
+      </c>
+      <c r="I7" s="50">
+        <v>3720</v>
+      </c>
+      <c r="J7" s="50">
+        <v>3720</v>
+      </c>
+      <c r="K7" s="51">
+        <v>3720</v>
+      </c>
+      <c r="L7" s="50">
+        <v>3742</v>
+      </c>
+      <c r="M7" s="50">
+        <v>3742</v>
+      </c>
+      <c r="N7" s="52">
+        <f t="shared" si="0"/>
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="H8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="J8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="49">
+        <v>5000</v>
+      </c>
+      <c r="N8" s="52">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="51">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="52">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="P9" s="51"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="51">
+        <v>0</v>
+      </c>
+      <c r="C10" s="51">
+        <v>0</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0</v>
+      </c>
+      <c r="G10" s="51">
+        <v>0</v>
+      </c>
+      <c r="H10" s="50">
+        <v>5643</v>
+      </c>
+      <c r="I10" s="51">
+        <v>0</v>
+      </c>
+      <c r="J10" s="51">
+        <v>0</v>
+      </c>
+      <c r="K10" s="51">
+        <v>0</v>
+      </c>
+      <c r="L10" s="51">
+        <v>0</v>
+      </c>
+      <c r="M10" s="51">
+        <v>0</v>
+      </c>
+      <c r="N10" s="52">
+        <f t="shared" si="0"/>
+        <v>5643</v>
+      </c>
+      <c r="P10" s="54"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="51">
+        <v>500</v>
+      </c>
+      <c r="C11" s="51">
+        <v>500</v>
+      </c>
+      <c r="D11" s="51">
+        <v>500</v>
+      </c>
+      <c r="E11" s="51">
+        <v>500</v>
+      </c>
+      <c r="F11" s="51">
+        <v>500</v>
+      </c>
+      <c r="G11" s="51">
+        <v>500</v>
+      </c>
+      <c r="H11" s="51">
+        <v>500</v>
+      </c>
+      <c r="I11" s="51">
+        <v>500</v>
+      </c>
+      <c r="J11" s="51">
+        <v>500</v>
+      </c>
+      <c r="K11" s="51">
+        <v>500</v>
+      </c>
+      <c r="L11" s="51">
+        <v>500</v>
+      </c>
+      <c r="M11" s="51">
+        <v>500</v>
+      </c>
+      <c r="N11" s="52">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A12" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="51">
+        <v>0</v>
+      </c>
+      <c r="C12" s="51">
+        <v>0</v>
+      </c>
+      <c r="D12" s="51">
+        <v>0</v>
+      </c>
+      <c r="E12" s="51">
+        <v>0</v>
+      </c>
+      <c r="F12" s="51">
+        <v>0</v>
+      </c>
+      <c r="G12" s="51">
+        <v>0</v>
+      </c>
+      <c r="H12" s="51">
+        <v>0</v>
+      </c>
+      <c r="I12" s="51">
+        <v>0</v>
+      </c>
+      <c r="J12" s="51">
+        <v>0</v>
+      </c>
+      <c r="K12" s="51">
+        <v>2400</v>
+      </c>
+      <c r="L12" s="51">
+        <v>0</v>
+      </c>
+      <c r="M12" s="51">
+        <v>0</v>
+      </c>
+      <c r="N12" s="52">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="O12" s="54">
+        <f>SUM(N4:N12)</f>
+        <v>921488</v>
+      </c>
+      <c r="P12" s="54">
+        <v>17400</v>
+      </c>
+      <c r="Q12" s="53">
+        <f>O12-P12</f>
+        <v>904088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A13" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="56">
+        <f t="shared" ref="B13:M13" si="1">SUM(B3:B12)</f>
+        <v>81610</v>
+      </c>
+      <c r="C13" s="56">
+        <f t="shared" si="1"/>
+        <v>81056</v>
+      </c>
+      <c r="D13" s="56">
+        <f t="shared" si="1"/>
+        <v>81056</v>
+      </c>
+      <c r="E13" s="56">
+        <f t="shared" si="1"/>
+        <v>81056</v>
+      </c>
+      <c r="F13" s="56">
+        <f t="shared" si="1"/>
+        <v>82036</v>
+      </c>
+      <c r="G13" s="56">
+        <f t="shared" si="1"/>
+        <v>82036</v>
+      </c>
+      <c r="H13" s="56">
+        <f t="shared" si="1"/>
+        <v>88624</v>
+      </c>
+      <c r="I13" s="56">
+        <f t="shared" si="1"/>
+        <v>84614</v>
+      </c>
+      <c r="J13" s="56">
+        <f t="shared" si="1"/>
+        <v>84614</v>
+      </c>
+      <c r="K13" s="56">
+        <f t="shared" si="1"/>
+        <v>87014</v>
+      </c>
+      <c r="L13" s="56">
+        <f t="shared" si="1"/>
+        <v>85086</v>
+      </c>
+      <c r="M13" s="56">
+        <f t="shared" si="1"/>
+        <v>107086</v>
+      </c>
+      <c r="N13" s="57">
+        <f>SUM(N3:N12)</f>
+        <v>1025888</v>
+      </c>
+      <c r="O13" s="52">
+        <v>106295</v>
+      </c>
+      <c r="P13" s="54">
+        <f>N13+O13</f>
+        <v>1132183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="50">
+        <v>8584</v>
+      </c>
+      <c r="C15" s="50">
+        <v>8521</v>
+      </c>
+      <c r="D15" s="50">
+        <v>8521</v>
+      </c>
+      <c r="E15" s="50">
+        <v>8521</v>
+      </c>
+      <c r="F15" s="50">
+        <v>8633</v>
+      </c>
+      <c r="G15" s="50">
+        <v>8633</v>
+      </c>
+      <c r="H15" s="50">
+        <v>8741</v>
+      </c>
+      <c r="I15" s="50">
+        <v>8927</v>
+      </c>
+      <c r="J15" s="50">
+        <v>8927</v>
+      </c>
+      <c r="K15" s="51">
+        <v>8927</v>
+      </c>
+      <c r="L15" s="50">
+        <v>8981</v>
+      </c>
+      <c r="M15" s="50">
+        <v>8981</v>
+      </c>
+      <c r="N15" s="58">
+        <f>SUM(B15:M15)</f>
+        <v>104897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="50">
+        <v>17289</v>
+      </c>
+      <c r="C16" s="50">
+        <v>15361</v>
+      </c>
+      <c r="D16" s="50">
+        <v>17742</v>
+      </c>
+      <c r="E16" s="50">
+        <v>18974</v>
+      </c>
+      <c r="F16" s="50">
+        <v>19195</v>
+      </c>
+      <c r="G16" s="50">
+        <v>19124</v>
+      </c>
+      <c r="H16" s="50">
+        <v>18769</v>
+      </c>
+      <c r="I16" s="50">
+        <v>18983</v>
+      </c>
+      <c r="J16" s="50">
+        <v>18632</v>
+      </c>
+      <c r="K16" s="51">
+        <v>18841</v>
+      </c>
+      <c r="L16" s="50">
+        <v>18770</v>
+      </c>
+      <c r="M16" s="50">
+        <v>17882</v>
+      </c>
+      <c r="N16" s="52">
+        <f t="shared" ref="N16:N25" si="2">SUM(B16:M16)</f>
+        <v>219562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="C17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="D17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="G17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="H17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="I17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="J17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="K17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="L17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="M17" s="50">
+        <v>2400</v>
+      </c>
+      <c r="N17" s="58">
+        <f t="shared" si="2"/>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="50">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="50">
+        <v>1500</v>
+      </c>
+      <c r="D18" s="50">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="52">
+        <v>0</v>
+      </c>
+      <c r="F18" s="52">
+        <v>0</v>
+      </c>
+      <c r="G18" s="52">
+        <v>0</v>
+      </c>
+      <c r="H18" s="52">
+        <v>0</v>
+      </c>
+      <c r="I18" s="52">
+        <v>0</v>
+      </c>
+      <c r="J18" s="52">
+        <v>0</v>
+      </c>
+      <c r="K18" s="52">
+        <v>0</v>
+      </c>
+      <c r="L18" s="52">
+        <v>0</v>
+      </c>
+      <c r="M18" s="52">
+        <v>0</v>
+      </c>
+      <c r="N18" s="52">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="50">
+        <v>6500</v>
+      </c>
+      <c r="C19" s="50">
+        <v>6500</v>
+      </c>
+      <c r="D19" s="50">
+        <v>6500</v>
+      </c>
+      <c r="E19" s="50">
+        <v>6500</v>
+      </c>
+      <c r="F19" s="50">
+        <v>6500</v>
+      </c>
+      <c r="G19" s="50">
+        <v>6500</v>
+      </c>
+      <c r="H19" s="50">
+        <v>6500</v>
+      </c>
+      <c r="I19" s="50">
+        <v>6500</v>
+      </c>
+      <c r="J19" s="50">
+        <v>6500</v>
+      </c>
+      <c r="K19" s="51">
+        <v>6500</v>
+      </c>
+      <c r="L19" s="51">
+        <v>6500</v>
+      </c>
+      <c r="M19" s="51">
+        <v>6500</v>
+      </c>
+      <c r="N19" s="52">
+        <f t="shared" si="2"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="51">
+        <v>1</v>
+      </c>
+      <c r="C20" s="51">
+        <v>1</v>
+      </c>
+      <c r="D20" s="51">
+        <v>1</v>
+      </c>
+      <c r="E20" s="51">
+        <v>1</v>
+      </c>
+      <c r="F20" s="51">
+        <v>1</v>
+      </c>
+      <c r="G20" s="51">
+        <v>1</v>
+      </c>
+      <c r="H20" s="51">
+        <v>1</v>
+      </c>
+      <c r="I20" s="51">
+        <v>1</v>
+      </c>
+      <c r="J20" s="51">
+        <v>1</v>
+      </c>
+      <c r="K20" s="51">
+        <v>1</v>
+      </c>
+      <c r="L20" s="51">
+        <v>1</v>
+      </c>
+      <c r="M20" s="51">
+        <v>1</v>
+      </c>
+      <c r="N20" s="52">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="51">
+        <v>200</v>
+      </c>
+      <c r="C21" s="51">
+        <v>200</v>
+      </c>
+      <c r="D21" s="51">
+        <v>200</v>
+      </c>
+      <c r="E21" s="51">
+        <v>200</v>
+      </c>
+      <c r="F21" s="51">
+        <v>200</v>
+      </c>
+      <c r="G21" s="51">
+        <v>200</v>
+      </c>
+      <c r="H21" s="51">
+        <v>200</v>
+      </c>
+      <c r="I21" s="51">
+        <v>200</v>
+      </c>
+      <c r="J21" s="51">
+        <v>200</v>
+      </c>
+      <c r="K21" s="51">
+        <v>200</v>
+      </c>
+      <c r="L21" s="51">
+        <v>300</v>
+      </c>
+      <c r="M21" s="51">
+        <v>200</v>
+      </c>
+      <c r="N21" s="52">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="50">
+        <v>3000</v>
+      </c>
+      <c r="C22" s="50">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="50">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="50">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="52">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="52">
+        <v>4000</v>
+      </c>
+      <c r="H22" s="50">
+        <v>5000</v>
+      </c>
+      <c r="I22" s="50">
+        <v>5000</v>
+      </c>
+      <c r="J22" s="50">
+        <v>15000</v>
+      </c>
+      <c r="K22" s="51">
+        <v>12000</v>
+      </c>
+      <c r="L22" s="50">
+        <v>15000</v>
+      </c>
+      <c r="M22" s="50">
+        <v>16372</v>
+      </c>
+      <c r="N22" s="52">
+        <f t="shared" si="2"/>
+        <v>87372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="50">
+        <v>0</v>
+      </c>
+      <c r="C23" s="50">
+        <v>0</v>
+      </c>
+      <c r="D23" s="50">
+        <v>0</v>
+      </c>
+      <c r="E23" s="50">
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
+        <v>0</v>
+      </c>
+      <c r="G23" s="50">
+        <v>0</v>
+      </c>
+      <c r="H23" s="59">
+        <v>645</v>
+      </c>
+      <c r="I23" s="50">
+        <v>0</v>
+      </c>
+      <c r="J23" s="50">
+        <v>0</v>
+      </c>
+      <c r="K23" s="50">
+        <v>0</v>
+      </c>
+      <c r="L23" s="50">
+        <v>0</v>
+      </c>
+      <c r="M23" s="50">
+        <v>0</v>
+      </c>
+      <c r="N23" s="52">
+        <f t="shared" si="2"/>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="50">
+        <v>25</v>
+      </c>
+      <c r="C24" s="50">
+        <v>25</v>
+      </c>
+      <c r="D24" s="50">
+        <v>25</v>
+      </c>
+      <c r="E24" s="50">
+        <v>25</v>
+      </c>
+      <c r="F24" s="50">
+        <v>25</v>
+      </c>
+      <c r="G24" s="50">
+        <v>25</v>
+      </c>
+      <c r="H24" s="50">
+        <v>25</v>
+      </c>
+      <c r="I24" s="50">
+        <v>25</v>
+      </c>
+      <c r="J24" s="50">
+        <v>25</v>
+      </c>
+      <c r="K24" s="50">
+        <v>25</v>
+      </c>
+      <c r="L24" s="50">
+        <v>25</v>
+      </c>
+      <c r="M24" s="50">
+        <v>25</v>
+      </c>
+      <c r="N24" s="52">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A25" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="50">
+        <v>0</v>
+      </c>
+      <c r="C25" s="50">
+        <v>0</v>
+      </c>
+      <c r="D25" s="50">
+        <v>0</v>
+      </c>
+      <c r="E25" s="50">
+        <v>0</v>
+      </c>
+      <c r="F25" s="50">
+        <v>0</v>
+      </c>
+      <c r="G25" s="50">
+        <v>0</v>
+      </c>
+      <c r="H25" s="50">
+        <v>0</v>
+      </c>
+      <c r="I25" s="50">
+        <v>0</v>
+      </c>
+      <c r="J25" s="50">
+        <v>0</v>
+      </c>
+      <c r="K25" s="50">
+        <v>0</v>
+      </c>
+      <c r="L25" s="50">
+        <v>0</v>
+      </c>
+      <c r="M25" s="59">
+        <v>5000</v>
+      </c>
+      <c r="N25" s="52">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A26" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="60">
+        <f>SUM(B15:B25)</f>
+        <v>39499</v>
+      </c>
+      <c r="C26" s="60">
+        <f t="shared" ref="C26:M26" si="3">SUM(C15:C25)</f>
+        <v>37508</v>
+      </c>
+      <c r="D26" s="60">
+        <f t="shared" si="3"/>
+        <v>39889</v>
+      </c>
+      <c r="E26" s="60">
+        <f t="shared" si="3"/>
+        <v>39621</v>
+      </c>
+      <c r="F26" s="60">
+        <f t="shared" si="3"/>
+        <v>39954</v>
+      </c>
+      <c r="G26" s="60">
+        <f t="shared" si="3"/>
+        <v>40883</v>
+      </c>
+      <c r="H26" s="60">
+        <f t="shared" si="3"/>
+        <v>42281</v>
+      </c>
+      <c r="I26" s="60">
+        <f t="shared" si="3"/>
+        <v>42036</v>
+      </c>
+      <c r="J26" s="60">
+        <f t="shared" si="3"/>
+        <v>51685</v>
+      </c>
+      <c r="K26" s="60">
+        <f t="shared" si="3"/>
+        <v>48894</v>
+      </c>
+      <c r="L26" s="60">
+        <f t="shared" si="3"/>
+        <v>51977</v>
+      </c>
+      <c r="M26" s="60">
+        <f t="shared" si="3"/>
+        <v>57361</v>
+      </c>
+      <c r="N26" s="61">
+        <f t="shared" ref="N26:Z26" si="4">SUM(N15:N24)</f>
+        <v>526588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B27" s="49"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A28" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="62">
+        <f t="shared" ref="B28:N28" si="5">B13-B26</f>
+        <v>42111</v>
+      </c>
+      <c r="C28" s="62">
+        <f t="shared" si="5"/>
+        <v>43548</v>
+      </c>
+      <c r="D28" s="62">
+        <f t="shared" si="5"/>
+        <v>41167</v>
+      </c>
+      <c r="E28" s="62">
+        <f t="shared" si="5"/>
+        <v>41435</v>
+      </c>
+      <c r="F28" s="62">
+        <f t="shared" si="5"/>
+        <v>42082</v>
+      </c>
+      <c r="G28" s="62">
+        <f t="shared" si="5"/>
+        <v>41153</v>
+      </c>
+      <c r="H28" s="62">
+        <f t="shared" si="5"/>
+        <v>46343</v>
+      </c>
+      <c r="I28" s="62">
+        <f t="shared" si="5"/>
+        <v>42578</v>
+      </c>
+      <c r="J28" s="62">
+        <f t="shared" si="5"/>
+        <v>32929</v>
+      </c>
+      <c r="K28" s="62">
+        <f t="shared" si="5"/>
+        <v>38120</v>
+      </c>
+      <c r="L28" s="62">
+        <f t="shared" si="5"/>
+        <v>33109</v>
+      </c>
+      <c r="M28" s="62">
+        <f t="shared" si="5"/>
+        <v>49725</v>
+      </c>
+      <c r="N28" s="63">
+        <f t="shared" si="5"/>
+        <v>499300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>